--- a/biology/Écologie/Nuit_de_la_chouette/Nuit_de_la_chouette.xlsx
+++ b/biology/Écologie/Nuit_de_la_chouette/Nuit_de_la_chouette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Nuit de la chouette est un événement organisé en France depuis 1995[1] par la Fédération des Parcs naturels régionaux de France et la Ligue pour la protection des oiseaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Nuit de la chouette est un événement organisé en France depuis 1995 par la Fédération des Parcs naturels régionaux de France et la Ligue pour la protection des oiseaux.
 À partir de 2011, l'activité a également lieu en Belgique francophone et en 2019 aussi au Luxembourg.
 </t>
         </is>
@@ -514,19 +526,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>En France
-Cet événement grand public a pour but de faire découvrir les rapaces nocturnes et montrer pourquoi ils sont menacés et comment les sauvegarder. Il réunit environ 30 000 personnes sur 300 à 500 sites[2].
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cet événement grand public a pour but de faire découvrir les rapaces nocturnes et montrer pourquoi ils sont menacés et comment les sauvegarder. Il réunit environ 30 000 personnes sur 300 à 500 sites.
 C'est un événement qui se déroule tous les deux ans à la fois de jour et de nuit généralement au mois de mars :
 En 2007, la septième Nuit de la chouette s'est déroulée le samedi 31 mars 2007, du milieu de l’après-midi au cœur de la nuit et a réuni 23 000 personnes (LPO) ;
-En 2009, l’événement a réuni plus de 26 000 personnes sur 400 animations[3] ;
-En 2011, 560 animations étaient prévues[4] ;
-En 2013, la dixième édition s'est tenue le 23 mars 2013. Plus de 600 animations gratuites étaient au programme[5] ;
+En 2009, l’événement a réuni plus de 26 000 personnes sur 400 animations ;
+En 2011, 560 animations étaient prévues ;
+En 2013, la dixième édition s'est tenue le 23 mars 2013. Plus de 600 animations gratuites étaient au programme ;
 En 2015, la onzième édition a eu lieu le 4 avril 2015.
 En 2017, la 12e édition s'est tenue le 11 mars 2017.
 En 2019, la 13e édition est prévue le 2 mars 2019.
 En 2021, la 14e édition est prévue le 6 mars 2021
-En 2022, la 15e édition est prévue le 18 mars 2022
-En Belgique</t>
+En 2022, la 15e édition est prévue le 18 mars 2022</t>
         </is>
       </c>
     </row>
